--- a/releases/3.2.0/shacl/cpsv-ap-SHACL.xlsx
+++ b/releases/3.2.0/shacl/cpsv-ap-SHACL.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="129">
   <si>
     <t>Class URI</t>
   </si>
@@ -140,10 +140,13 @@
     <t>http://www.w3.org/1999/xhtml/vocab#</t>
   </si>
   <si>
+    <t>rdf:type</t>
+  </si>
+  <si>
+    <t>owl:Class</t>
+  </si>
+  <si>
     <t>URI</t>
-  </si>
-  <si>
-    <t>rdf:type</t>
   </si>
   <si>
     <t>locn:thoroughfare</t>
@@ -789,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -798,9 +801,12 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
-    <col min="4" max="6" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="9" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -965,33 +971,41 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1018,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1027,8 +1041,10 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="35.28515625" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
-    <col min="4" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="7" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1037,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1194,30 +1210,38 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>53</v>
+      <c r="F18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1268,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1264,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1421,27 +1445,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="E18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>68</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1500,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1484,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1641,12 +1673,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1673,7 +1713,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1689,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1846,12 +1886,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1878,7 +1926,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1894,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2051,12 +2099,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +2139,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2102,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2259,24 +2315,32 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>53</v>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2303,7 +2367,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2327,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2484,39 +2548,47 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="D18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>79</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2543,7 +2615,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2560,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2717,18 +2789,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>81</v>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +2835,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2771,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2928,15 +3008,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>83</v>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2963,7 +3051,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2979,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3136,15 +3224,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>46</v>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3171,7 +3267,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3190,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3347,24 +3443,32 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3391,7 +3495,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3407,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3564,12 +3668,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3596,7 +3708,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3612,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3769,12 +3881,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3801,7 +3921,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3817,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3974,12 +4094,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4006,14 +4134,15 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="3" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4021,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4178,12 +4307,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4210,7 +4347,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4231,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4388,30 +4525,38 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>53</v>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4438,7 +4583,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4457,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4614,24 +4759,32 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>92</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4658,7 +4811,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4675,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4832,18 +4985,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>95</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4870,7 +5031,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD17"/>
+  <dimension ref="A1:AD18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4897,13 +5058,15 @@
     <col min="19" max="19" width="15.7109375" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
     <col min="21" max="21" width="13.42578125" customWidth="1"/>
-    <col min="22" max="23" width="14.5703125" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" customWidth="1"/>
     <col min="24" max="24" width="18" customWidth="1"/>
     <col min="25" max="25" width="22.5703125" customWidth="1"/>
     <col min="26" max="26" width="14.5703125" customWidth="1"/>
     <col min="27" max="27" width="16.85546875" customWidth="1"/>
     <col min="28" max="28" width="9.85546875" customWidth="1"/>
-    <col min="29" max="30" width="22.5703125" customWidth="1"/>
+    <col min="29" max="29" width="22.5703125" customWidth="1"/>
+    <col min="30" max="30" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4911,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5068,96 +5231,104 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="G18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M17" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P17" s="3" t="s">
+      <c r="L18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="N18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="V17" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="S18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="V18" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="X17" s="3" t="s">
+      <c r="W18" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Y17" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z17" s="3" t="s">
+      <c r="Y18" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AA17" s="3" t="s">
+      <c r="Z18" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC17" s="3" t="s">
+      <c r="AA18" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AD17" s="3" t="s">
+      <c r="AB18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC18" s="3" t="s">
         <v>115</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -5184,14 +5355,15 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="3" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
@@ -5203,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5360,27 +5532,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>118</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -5407,7 +5587,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5428,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5585,30 +5765,38 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>53</v>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5635,7 +5823,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5651,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5808,15 +5996,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>46</v>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5843,7 +6039,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5864,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6021,30 +6217,38 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="D18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>124</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -6071,7 +6275,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6088,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6245,18 +6449,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>53</v>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -6283,7 +6495,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6299,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6456,12 +6668,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -6488,7 +6708,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6511,7 +6731,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6668,36 +6888,44 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="E18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>53</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -6724,7 +6952,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6740,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6897,12 +7125,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -6929,7 +7165,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6945,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7102,15 +7338,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>56</v>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -7137,7 +7381,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7153,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7310,12 +7554,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -7342,7 +7594,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7358,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7515,12 +7767,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -7547,7 +7807,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7565,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7722,21 +7982,29 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>52</v>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
